--- a/SoccerD3MenTournament.xlsx
+++ b/SoccerD3MenTournament.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="SoccerD3MenTournament" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="2" r:id="rId1"/>
+    <sheet name="2017" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="550">
   <si>
     <t>Team</t>
   </si>
@@ -1618,6 +1619,57 @@
   </si>
   <si>
     <t>D16</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>St. Thomas (Texas)</t>
+  </si>
+  <si>
+    <t>AEC</t>
+  </si>
+  <si>
+    <t>Sul Ross State</t>
+  </si>
+  <si>
+    <t>Johnson and Wales-Denver</t>
+  </si>
+  <si>
+    <t>St. Joseph (Conn.)</t>
+  </si>
+  <si>
+    <t>Mary Baldwin</t>
+  </si>
+  <si>
+    <t>SUNY Delhi</t>
+  </si>
+  <si>
+    <t>Hartwick</t>
+  </si>
+  <si>
+    <t>MCLA</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>Miss. U. for Women</t>
+  </si>
+  <si>
+    <t>NVU-Johnson</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>NVU-Lyndon</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2153,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2424,11 +2477,6112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F420"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1">
+        <f>COUNTA(E2:E451)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>5.5017665959907598</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3">
+        <v>0.74990968268581204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>3.2716377176650702</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5">
+        <v>1.2487196044911699</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.3202467999356804</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>0.428667575552654</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8">
+        <v>2.90547744458051</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>4.4531581341473201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10">
+        <v>0.20391791100802301</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11">
+        <v>2.4392577346158699</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12">
+        <v>1.37521569744366</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>6.4049370431342698</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14">
+        <v>0.74611585630536603</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3.02055650548784</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16">
+        <v>1.29058693661971</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <v>3.2730923996458499</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>2.7440498476677999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19">
+        <v>0.79920571415108999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>3.0655978560568</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>3.6423446635110701</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>3.2937754109533302</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>1.8276165632341801</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>1.87615231645169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>1.16563956781163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>290</v>
+      </c>
+      <c r="B26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26">
+        <v>0.27908311155093202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>3.3670974402072198</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28">
+        <v>1.54719117883733</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29">
+        <v>3.1169045051083799</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30">
+        <v>2.40370068176211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>2.1203280019145399</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>2.7444187859678499</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>6.0583175932958904</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>7.2749833939984496</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35">
+        <v>0.34004259379442903</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36">
+        <v>2.3192919329224599</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37">
+        <v>0.99381401167101702</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>5.8612257067856399</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39">
+        <v>2.0050213542483801</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40">
+        <v>3.1623065223177198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>3.7477403614624598</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>281</v>
+      </c>
+      <c r="B42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42">
+        <v>0.30710723397072998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>3.4703354833714899</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44">
+        <v>4.0990970018200201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>6.3255049935413998</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>1.22427289463703</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47">
+        <v>2.6267224430603999</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>3.6044849804573</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>4.7584549693449096</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.7626641731854802</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51">
+        <v>1.7464529118015499</v>
+      </c>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>1.67123993511167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53">
+        <v>1.79755795679552</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>2.9653487004036299</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>1.9656217177928299</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56">
+        <v>2.1936620148630701</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57">
+        <v>3.7435592493719398</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58">
+        <v>1.6393892197287101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>3.1773963192477601</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60">
+        <v>2.1446342053520899</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61">
+        <v>3.2542631072382902</v>
+      </c>
+      <c r="D61" t="s">
+        <v>533</v>
+      </c>
+      <c r="E61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>239</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62">
+        <v>0.43772061283104402</v>
+      </c>
+      <c r="D62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63">
+        <v>1.81013382789184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>533</v>
+      </c>
+      <c r="E63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64">
+        <v>1.4329183599217601</v>
+      </c>
+      <c r="D64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>5.1995982521449502</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66">
+        <v>3.30501071314578</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67">
+        <v>3.0679027734602502</v>
+      </c>
+      <c r="D67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68">
+        <v>2.9915234124321501</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>2.8249704432348701</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70">
+        <v>2.738131309755</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71">
+        <v>2.68835715763203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72">
+        <v>2.6875938511976498</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73">
+        <v>2.6104295033915998</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>41</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <v>2.5895197228428501</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75">
+        <v>2.5771218875869901</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76">
+        <v>2.5388514452643798</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77">
+        <v>2.5206145566885199</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>47</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>2.3948801737085699</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79">
+        <v>2.3923517245106898</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80">
+        <v>2.30677080402815</v>
+      </c>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>2.27253415659488</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82">
+        <v>2.2208372361706501</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>2.1387483526698698</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84">
+        <v>2.1187118271683301</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85">
+        <v>2.0868909919893999</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86">
+        <v>2.0810222917163799</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87">
+        <v>2.0809500464656301</v>
+      </c>
+      <c r="D87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>2.0222418148886701</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>64</v>
+      </c>
+      <c r="B89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89">
+        <v>1.9460554544412001</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>65</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>1.9034741516401099</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>1.8847177952377201</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>68</v>
+      </c>
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92">
+        <v>1.8698836499904199</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93">
+        <v>1.8260433126498301</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>72</v>
+      </c>
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94">
+        <v>1.7990102565863699</v>
+      </c>
+      <c r="D94" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>74</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95">
+        <v>1.7950590362763901</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>75</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96">
+        <v>1.7887854068170199</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>76</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97">
+        <v>1.7499906122669899</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>78</v>
+      </c>
+      <c r="B98" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98">
+        <v>1.73457539294674</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>1.7215376130454001</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>80</v>
+      </c>
+      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100">
+        <v>1.6841792474073001</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>81</v>
+      </c>
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101">
+        <v>1.67215088178662</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102">
+        <v>1.6510914173832201</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103">
+        <v>1.62338352885813</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104">
+        <v>1.5938100106436901</v>
+      </c>
+      <c r="D104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>87</v>
+      </c>
+      <c r="B105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105">
+        <v>1.59308143262868</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106">
+        <v>1.5823835729733999</v>
+      </c>
+      <c r="D106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>89</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107">
+        <v>1.5520846752842901</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>91</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108">
+        <v>1.54679367287368</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>1.5216271927027101</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110">
+        <v>1.49715659400467</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111">
+        <v>1.48767318616264</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>95</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112">
+        <v>1.4680358735664101</v>
+      </c>
+      <c r="D112" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>96</v>
+      </c>
+      <c r="B113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113">
+        <v>1.46536956328125</v>
+      </c>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>97</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114">
+        <v>1.45286124880513</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115">
+        <v>1.45121734303575</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116">
+        <v>1.4382893633715399</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117">
+        <v>1.42639964461838</v>
+      </c>
+      <c r="D117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>102</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118">
+        <v>1.41546494001121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119">
+        <v>1.36456852861859</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>105</v>
+      </c>
+      <c r="B120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120">
+        <v>1.34834289881289</v>
+      </c>
+      <c r="D120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>106</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121">
+        <v>1.3462929836966699</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122">
+        <v>1.34556907854986</v>
+      </c>
+      <c r="D122" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>108</v>
+      </c>
+      <c r="B123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123">
+        <v>1.3350602712333599</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124">
+        <v>1.32398940901132</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>110</v>
+      </c>
+      <c r="B125" t="s">
+        <v>335</v>
+      </c>
+      <c r="C125">
+        <v>1.3172555662431</v>
+      </c>
+      <c r="D125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>111</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126">
+        <v>1.31518092232799</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127">
+        <v>1.3070695874993199</v>
+      </c>
+      <c r="D127" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>114</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128">
+        <v>1.2899675635757399</v>
+      </c>
+      <c r="D128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>115</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>1.27414452997252</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>116</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130">
+        <v>1.26495595661328</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>117</v>
+      </c>
+      <c r="B131" t="s">
+        <v>196</v>
+      </c>
+      <c r="C131">
+        <v>1.25147276369036</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>119</v>
+      </c>
+      <c r="B132" t="s">
+        <v>147</v>
+      </c>
+      <c r="C132">
+        <v>1.2414924781033101</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>120</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133">
+        <v>1.2307013117865799</v>
+      </c>
+      <c r="D133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>122</v>
+      </c>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134">
+        <v>1.2157216028564399</v>
+      </c>
+      <c r="D134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>123</v>
+      </c>
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135">
+        <v>1.2105011352449699</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>124</v>
+      </c>
+      <c r="B136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136">
+        <v>1.1695548145612</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>126</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137">
+        <v>1.16472396612966</v>
+      </c>
+      <c r="D137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>127</v>
+      </c>
+      <c r="B138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C138">
+        <v>1.1594576393412199</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>128</v>
+      </c>
+      <c r="B139" t="s">
+        <v>66</v>
+      </c>
+      <c r="C139">
+        <v>1.15606858734114</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>129</v>
+      </c>
+      <c r="B140" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140">
+        <v>1.13923020951299</v>
+      </c>
+      <c r="D140" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>130</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141">
+        <v>1.12959816402936</v>
+      </c>
+      <c r="D141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>131</v>
+      </c>
+      <c r="B142" t="s">
+        <v>172</v>
+      </c>
+      <c r="C142">
+        <v>1.1281607906400299</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>132</v>
+      </c>
+      <c r="B143" t="s">
+        <v>210</v>
+      </c>
+      <c r="C143">
+        <v>1.12745215710147</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>133</v>
+      </c>
+      <c r="B144" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144">
+        <v>1.1219598113428499</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>134</v>
+      </c>
+      <c r="B145" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145">
+        <v>1.11883126442365</v>
+      </c>
+      <c r="D145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>135</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146">
+        <v>1.1181865509738</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>136</v>
+      </c>
+      <c r="B147" t="s">
+        <v>211</v>
+      </c>
+      <c r="C147">
+        <v>1.1132748833946999</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>137</v>
+      </c>
+      <c r="B148" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148">
+        <v>1.11311410068279</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>366</v>
+      </c>
+      <c r="C149">
+        <v>1.10213904882032</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>139</v>
+      </c>
+      <c r="B150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150">
+        <v>1.10183437038941</v>
+      </c>
+      <c r="D150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>140</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>1.1003984476544599</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>141</v>
+      </c>
+      <c r="B152" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152">
+        <v>1.0989350474035</v>
+      </c>
+      <c r="D152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>142</v>
+      </c>
+      <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153">
+        <v>1.08734187958285</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>143</v>
+      </c>
+      <c r="B154" t="s">
+        <v>298</v>
+      </c>
+      <c r="C154">
+        <v>1.07032142230601</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>144</v>
+      </c>
+      <c r="B155" t="s">
+        <v>187</v>
+      </c>
+      <c r="C155">
+        <v>1.0692853393444199</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>145</v>
+      </c>
+      <c r="B156" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156">
+        <v>1.0664793419977201</v>
+      </c>
+      <c r="D156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157">
+        <v>1.06374166983357</v>
+      </c>
+      <c r="D157" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158">
+        <v>1.04589403756591</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>148</v>
+      </c>
+      <c r="B159" t="s">
+        <v>104</v>
+      </c>
+      <c r="C159">
+        <v>1.0328165328854799</v>
+      </c>
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160">
+        <v>1.0210973699280399</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>193</v>
+      </c>
+      <c r="C161">
+        <v>1.01213301510232</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>151</v>
+      </c>
+      <c r="B162" t="s">
+        <v>262</v>
+      </c>
+      <c r="C162">
+        <v>1.01033374653636</v>
+      </c>
+      <c r="D162" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>152</v>
+      </c>
+      <c r="B163" t="s">
+        <v>248</v>
+      </c>
+      <c r="C163">
+        <v>0.996805495366615</v>
+      </c>
+      <c r="D163" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>154</v>
+      </c>
+      <c r="B164" t="s">
+        <v>534</v>
+      </c>
+      <c r="C164">
+        <v>0.99219678182400295</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>155</v>
+      </c>
+      <c r="B165" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165">
+        <v>0.98690019806420803</v>
+      </c>
+      <c r="D165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>156</v>
+      </c>
+      <c r="B166" t="s">
+        <v>232</v>
+      </c>
+      <c r="C166">
+        <v>0.98331128159250403</v>
+      </c>
+      <c r="D166" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>157</v>
+      </c>
+      <c r="B167" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167">
+        <v>0.95885026614463897</v>
+      </c>
+      <c r="D167" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168">
+        <v>0.95692053272827604</v>
+      </c>
+      <c r="D168" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169">
+        <v>0.94550919695697799</v>
+      </c>
+      <c r="D169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>160</v>
+      </c>
+      <c r="B170" t="s">
+        <v>253</v>
+      </c>
+      <c r="C170">
+        <v>0.94118468152007295</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>161</v>
+      </c>
+      <c r="B171" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171">
+        <v>0.93918071854650798</v>
+      </c>
+      <c r="D171" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>162</v>
+      </c>
+      <c r="B172" t="s">
+        <v>287</v>
+      </c>
+      <c r="C172">
+        <v>0.931521831194838</v>
+      </c>
+      <c r="D172" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>163</v>
+      </c>
+      <c r="B173" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173">
+        <v>0.93021364122852301</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>164</v>
+      </c>
+      <c r="B174" t="s">
+        <v>237</v>
+      </c>
+      <c r="C174">
+        <v>0.92108195268912696</v>
+      </c>
+      <c r="D174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>165</v>
+      </c>
+      <c r="B175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175">
+        <v>0.91831502350840899</v>
+      </c>
+      <c r="D175" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>166</v>
+      </c>
+      <c r="B176" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>0.89336295568801805</v>
+      </c>
+      <c r="D176" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>167</v>
+      </c>
+      <c r="B177" t="s">
+        <v>222</v>
+      </c>
+      <c r="C177">
+        <v>0.88812040645829804</v>
+      </c>
+      <c r="D177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>168</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178">
+        <v>0.88689531976829195</v>
+      </c>
+      <c r="D178" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>169</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179">
+        <v>0.85735522056410896</v>
+      </c>
+      <c r="D179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>170</v>
+      </c>
+      <c r="B180" t="s">
+        <v>249</v>
+      </c>
+      <c r="C180">
+        <v>0.85734300607415703</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>171</v>
+      </c>
+      <c r="B181" t="s">
+        <v>233</v>
+      </c>
+      <c r="C181">
+        <v>0.85473772519825897</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>172</v>
+      </c>
+      <c r="B182" t="s">
+        <v>293</v>
+      </c>
+      <c r="C182">
+        <v>0.85302788269659002</v>
+      </c>
+      <c r="D182" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>173</v>
+      </c>
+      <c r="B183" t="s">
+        <v>143</v>
+      </c>
+      <c r="C183">
+        <v>0.84329749876807003</v>
+      </c>
+      <c r="D183" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>174</v>
+      </c>
+      <c r="B184" t="s">
+        <v>346</v>
+      </c>
+      <c r="C184">
+        <v>0.83676649761849398</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>175</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185">
+        <v>0.83661099817306706</v>
+      </c>
+      <c r="D185" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>176</v>
+      </c>
+      <c r="B186" t="s">
+        <v>264</v>
+      </c>
+      <c r="C186">
+        <v>0.83378610756357796</v>
+      </c>
+      <c r="D186" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>178</v>
+      </c>
+      <c r="B187" t="s">
+        <v>223</v>
+      </c>
+      <c r="C187">
+        <v>0.79907444913382797</v>
+      </c>
+      <c r="D187" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>179</v>
+      </c>
+      <c r="B188" t="s">
+        <v>127</v>
+      </c>
+      <c r="C188">
+        <v>0.79734749366520197</v>
+      </c>
+      <c r="D188" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>180</v>
+      </c>
+      <c r="B189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C189">
+        <v>0.76757833849782098</v>
+      </c>
+      <c r="D189" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>181</v>
+      </c>
+      <c r="B190" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190">
+        <v>0.75435851947345101</v>
+      </c>
+      <c r="D190" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>184</v>
+      </c>
+      <c r="B191" t="s">
+        <v>352</v>
+      </c>
+      <c r="C191">
+        <v>0.74451912538333398</v>
+      </c>
+      <c r="D191" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>185</v>
+      </c>
+      <c r="B192" t="s">
+        <v>229</v>
+      </c>
+      <c r="C192">
+        <v>0.74219773927671495</v>
+      </c>
+      <c r="D192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>186</v>
+      </c>
+      <c r="B193" t="s">
+        <v>135</v>
+      </c>
+      <c r="C193">
+        <v>0.72565622729382295</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>187</v>
+      </c>
+      <c r="B194" t="s">
+        <v>137</v>
+      </c>
+      <c r="C194">
+        <v>0.715436598614129</v>
+      </c>
+      <c r="D194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>188</v>
+      </c>
+      <c r="B195" t="s">
+        <v>296</v>
+      </c>
+      <c r="C195">
+        <v>0.70970945127132101</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>189</v>
+      </c>
+      <c r="B196" t="s">
+        <v>267</v>
+      </c>
+      <c r="C196">
+        <v>0.70912789709966095</v>
+      </c>
+      <c r="D196" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>190</v>
+      </c>
+      <c r="B197" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197">
+        <v>0.703810836042015</v>
+      </c>
+      <c r="D197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>191</v>
+      </c>
+      <c r="B198" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198">
+        <v>0.69622833514911897</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>192</v>
+      </c>
+      <c r="B199" t="s">
+        <v>194</v>
+      </c>
+      <c r="C199">
+        <v>0.67980515905508698</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>193</v>
+      </c>
+      <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200">
+        <v>0.66371647445693405</v>
+      </c>
+      <c r="D200" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>194</v>
+      </c>
+      <c r="B201" t="s">
+        <v>185</v>
+      </c>
+      <c r="C201">
+        <v>0.65653802108192105</v>
+      </c>
+      <c r="D201" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>195</v>
+      </c>
+      <c r="B202" t="s">
+        <v>51</v>
+      </c>
+      <c r="C202">
+        <v>0.65418716999919002</v>
+      </c>
+      <c r="D202" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>196</v>
+      </c>
+      <c r="B203" t="s">
+        <v>345</v>
+      </c>
+      <c r="C203">
+        <v>0.65195452153606104</v>
+      </c>
+      <c r="D203" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>197</v>
+      </c>
+      <c r="B204" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204">
+        <v>0.64509234524783698</v>
+      </c>
+      <c r="D204" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>198</v>
+      </c>
+      <c r="B205" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205">
+        <v>0.63904739349455497</v>
+      </c>
+      <c r="D205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>199</v>
+      </c>
+      <c r="B206" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206">
+        <v>0.62641838532608496</v>
+      </c>
+      <c r="D206" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>200</v>
+      </c>
+      <c r="B207" t="s">
+        <v>275</v>
+      </c>
+      <c r="C207">
+        <v>0.61404204496375203</v>
+      </c>
+      <c r="D207" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>201</v>
+      </c>
+      <c r="B208" t="s">
+        <v>299</v>
+      </c>
+      <c r="C208">
+        <v>0.60135785420646903</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>202</v>
+      </c>
+      <c r="B209" t="s">
+        <v>49</v>
+      </c>
+      <c r="C209">
+        <v>0.59293425513118103</v>
+      </c>
+      <c r="D209" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>203</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210">
+        <v>0.59115100939619902</v>
+      </c>
+      <c r="D210" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>204</v>
+      </c>
+      <c r="B211" t="s">
+        <v>323</v>
+      </c>
+      <c r="C211">
+        <v>0.59103001318110804</v>
+      </c>
+      <c r="D211" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>205</v>
+      </c>
+      <c r="B212" t="s">
+        <v>221</v>
+      </c>
+      <c r="C212">
+        <v>0.59012326145418204</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>206</v>
+      </c>
+      <c r="B213" t="s">
+        <v>361</v>
+      </c>
+      <c r="C213">
+        <v>0.57408010844626001</v>
+      </c>
+      <c r="D213" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>207</v>
+      </c>
+      <c r="B214" t="s">
+        <v>320</v>
+      </c>
+      <c r="C214">
+        <v>0.57386617722060596</v>
+      </c>
+      <c r="D214" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>208</v>
+      </c>
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215">
+        <v>0.56948496460271403</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>209</v>
+      </c>
+      <c r="B216" t="s">
+        <v>77</v>
+      </c>
+      <c r="C216">
+        <v>0.55508860643263502</v>
+      </c>
+      <c r="D216" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>210</v>
+      </c>
+      <c r="B217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C217">
+        <v>0.55261931872682801</v>
+      </c>
+      <c r="D217" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>211</v>
+      </c>
+      <c r="B218" t="s">
+        <v>360</v>
+      </c>
+      <c r="C218">
+        <v>0.55240652454124695</v>
+      </c>
+      <c r="D218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>212</v>
+      </c>
+      <c r="B219" t="s">
+        <v>341</v>
+      </c>
+      <c r="C219">
+        <v>0.52808689451042201</v>
+      </c>
+      <c r="D219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>213</v>
+      </c>
+      <c r="B220" t="s">
+        <v>235</v>
+      </c>
+      <c r="C220">
+        <v>0.523468067837077</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>214</v>
+      </c>
+      <c r="B221" t="s">
+        <v>203</v>
+      </c>
+      <c r="C221">
+        <v>0.51991844420200595</v>
+      </c>
+      <c r="D221" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>215</v>
+      </c>
+      <c r="B222" t="s">
+        <v>313</v>
+      </c>
+      <c r="C222">
+        <v>0.51760103294261905</v>
+      </c>
+      <c r="D222" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>216</v>
+      </c>
+      <c r="B223" t="s">
+        <v>324</v>
+      </c>
+      <c r="C223">
+        <v>0.51343940630388296</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>217</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224">
+        <v>0.51268624264154705</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>218</v>
+      </c>
+      <c r="B225" t="s">
+        <v>290</v>
+      </c>
+      <c r="C225">
+        <v>0.51254122680608205</v>
+      </c>
+      <c r="D225" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>219</v>
+      </c>
+      <c r="B226" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226">
+        <v>0.50994107312482095</v>
+      </c>
+      <c r="D226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>220</v>
+      </c>
+      <c r="B227" t="s">
+        <v>139</v>
+      </c>
+      <c r="C227">
+        <v>0.50181053830746303</v>
+      </c>
+      <c r="D227" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>221</v>
+      </c>
+      <c r="B228" t="s">
+        <v>215</v>
+      </c>
+      <c r="C228">
+        <v>0.49449430387864401</v>
+      </c>
+      <c r="D228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>222</v>
+      </c>
+      <c r="B229" t="s">
+        <v>114</v>
+      </c>
+      <c r="C229">
+        <v>0.49379438954320298</v>
+      </c>
+      <c r="D229" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>223</v>
+      </c>
+      <c r="B230" t="s">
+        <v>348</v>
+      </c>
+      <c r="C230">
+        <v>0.490783217721803</v>
+      </c>
+      <c r="D230" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>224</v>
+      </c>
+      <c r="B231" t="s">
+        <v>386</v>
+      </c>
+      <c r="C231">
+        <v>0.48400238800637302</v>
+      </c>
+      <c r="D231" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>225</v>
+      </c>
+      <c r="B232" t="s">
+        <v>278</v>
+      </c>
+      <c r="C232">
+        <v>0.48177556932126298</v>
+      </c>
+      <c r="D232" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>226</v>
+      </c>
+      <c r="B233" t="s">
+        <v>536</v>
+      </c>
+      <c r="C233">
+        <v>0.47980964539443599</v>
+      </c>
+      <c r="D233" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>227</v>
+      </c>
+      <c r="B234" t="s">
+        <v>217</v>
+      </c>
+      <c r="C234">
+        <v>0.478233412884492</v>
+      </c>
+      <c r="D234" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>228</v>
+      </c>
+      <c r="B235" t="s">
+        <v>379</v>
+      </c>
+      <c r="C235">
+        <v>0.47754086895375197</v>
+      </c>
+      <c r="D235" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>229</v>
+      </c>
+      <c r="B236" t="s">
+        <v>204</v>
+      </c>
+      <c r="C236">
+        <v>0.475270776421928</v>
+      </c>
+      <c r="D236" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>230</v>
+      </c>
+      <c r="B237" t="s">
+        <v>465</v>
+      </c>
+      <c r="C237">
+        <v>0.47229504629586699</v>
+      </c>
+      <c r="D237" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>231</v>
+      </c>
+      <c r="B238" t="s">
+        <v>146</v>
+      </c>
+      <c r="C238">
+        <v>0.46424620756316398</v>
+      </c>
+      <c r="D238" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>232</v>
+      </c>
+      <c r="B239" t="s">
+        <v>337</v>
+      </c>
+      <c r="C239">
+        <v>0.464202407589623</v>
+      </c>
+      <c r="D239" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>233</v>
+      </c>
+      <c r="B240" t="s">
+        <v>142</v>
+      </c>
+      <c r="C240">
+        <v>0.45206228583674801</v>
+      </c>
+      <c r="D240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>234</v>
+      </c>
+      <c r="B241" t="s">
+        <v>226</v>
+      </c>
+      <c r="C241">
+        <v>0.45058969422613199</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>235</v>
+      </c>
+      <c r="B242" t="s">
+        <v>281</v>
+      </c>
+      <c r="C242">
+        <v>0.44852606090490599</v>
+      </c>
+      <c r="D242" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>236</v>
+      </c>
+      <c r="B243" t="s">
+        <v>270</v>
+      </c>
+      <c r="C243">
+        <v>0.44770597969505999</v>
+      </c>
+      <c r="D243" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>237</v>
+      </c>
+      <c r="B244" t="s">
+        <v>255</v>
+      </c>
+      <c r="C244">
+        <v>0.44082756911534499</v>
+      </c>
+      <c r="D244" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>238</v>
+      </c>
+      <c r="B245" t="s">
+        <v>91</v>
+      </c>
+      <c r="C245">
+        <v>0.44076778220365898</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>240</v>
+      </c>
+      <c r="B246" t="s">
+        <v>537</v>
+      </c>
+      <c r="C246">
+        <v>0.436040722111112</v>
+      </c>
+      <c r="D246" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>241</v>
+      </c>
+      <c r="B247" t="s">
+        <v>206</v>
+      </c>
+      <c r="C247">
+        <v>0.434949972488551</v>
+      </c>
+      <c r="D247" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>242</v>
+      </c>
+      <c r="B248" t="s">
+        <v>212</v>
+      </c>
+      <c r="C248">
+        <v>0.42991353703087098</v>
+      </c>
+      <c r="D248" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>243</v>
+      </c>
+      <c r="B249" t="s">
+        <v>356</v>
+      </c>
+      <c r="C249">
+        <v>0.42916488594621099</v>
+      </c>
+      <c r="D249" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>245</v>
+      </c>
+      <c r="B250" t="s">
+        <v>364</v>
+      </c>
+      <c r="C250">
+        <v>0.42300078656246298</v>
+      </c>
+      <c r="D250" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>246</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251">
+        <v>0.42259900116816401</v>
+      </c>
+      <c r="D251" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>247</v>
+      </c>
+      <c r="B252" t="s">
+        <v>245</v>
+      </c>
+      <c r="C252">
+        <v>0.419692886524825</v>
+      </c>
+      <c r="D252" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>248</v>
+      </c>
+      <c r="B253" t="s">
+        <v>538</v>
+      </c>
+      <c r="C253">
+        <v>0.41380031740296602</v>
+      </c>
+      <c r="D253" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>249</v>
+      </c>
+      <c r="B254" t="s">
+        <v>398</v>
+      </c>
+      <c r="C254">
+        <v>0.41073606281487401</v>
+      </c>
+      <c r="D254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>250</v>
+      </c>
+      <c r="B255" t="s">
+        <v>303</v>
+      </c>
+      <c r="C255">
+        <v>0.40826087129634597</v>
+      </c>
+      <c r="D255" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>251</v>
+      </c>
+      <c r="B256" t="s">
+        <v>312</v>
+      </c>
+      <c r="C256">
+        <v>0.403127246671456</v>
+      </c>
+      <c r="D256" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>252</v>
+      </c>
+      <c r="B257" t="s">
+        <v>539</v>
+      </c>
+      <c r="C257">
+        <v>0.40179013227331201</v>
+      </c>
+      <c r="D257" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>253</v>
+      </c>
+      <c r="B258" t="s">
+        <v>295</v>
+      </c>
+      <c r="C258">
+        <v>0.39677779875831398</v>
+      </c>
+      <c r="D258" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>254</v>
+      </c>
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259">
+        <v>0.39371168361022602</v>
+      </c>
+      <c r="D259" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>255</v>
+      </c>
+      <c r="B260" t="s">
+        <v>311</v>
+      </c>
+      <c r="C260">
+        <v>0.39364293258493299</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>256</v>
+      </c>
+      <c r="B261" t="s">
+        <v>274</v>
+      </c>
+      <c r="C261">
+        <v>0.38928887230353598</v>
+      </c>
+      <c r="D261" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>257</v>
+      </c>
+      <c r="B262" t="s">
+        <v>279</v>
+      </c>
+      <c r="C262">
+        <v>0.38816375838199402</v>
+      </c>
+      <c r="D262" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>258</v>
+      </c>
+      <c r="B263" t="s">
+        <v>292</v>
+      </c>
+      <c r="C263">
+        <v>0.38813410802717402</v>
+      </c>
+      <c r="D263" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>259</v>
+      </c>
+      <c r="B264" t="s">
+        <v>344</v>
+      </c>
+      <c r="C264">
+        <v>0.38344313069284602</v>
+      </c>
+      <c r="D264" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>260</v>
+      </c>
+      <c r="B265" t="s">
+        <v>252</v>
+      </c>
+      <c r="C265">
+        <v>0.38319120446164601</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>261</v>
+      </c>
+      <c r="B266" t="s">
+        <v>84</v>
+      </c>
+      <c r="C266">
+        <v>0.36799003317683998</v>
+      </c>
+      <c r="D266" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>262</v>
+      </c>
+      <c r="B267" t="s">
+        <v>260</v>
+      </c>
+      <c r="C267">
+        <v>0.36782455740383302</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>263</v>
+      </c>
+      <c r="B268" t="s">
+        <v>390</v>
+      </c>
+      <c r="C268">
+        <v>0.36050993494623701</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>264</v>
+      </c>
+      <c r="B269" t="s">
+        <v>333</v>
+      </c>
+      <c r="C269">
+        <v>0.35884964030301297</v>
+      </c>
+      <c r="D269" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>265</v>
+      </c>
+      <c r="B270" t="s">
+        <v>286</v>
+      </c>
+      <c r="C270">
+        <v>0.35701261412318203</v>
+      </c>
+      <c r="D270" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>266</v>
+      </c>
+      <c r="B271" t="s">
+        <v>375</v>
+      </c>
+      <c r="C271">
+        <v>0.35470794362050001</v>
+      </c>
+      <c r="D271" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>267</v>
+      </c>
+      <c r="B272" t="s">
+        <v>163</v>
+      </c>
+      <c r="C272">
+        <v>0.35195635542925602</v>
+      </c>
+      <c r="D272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>268</v>
+      </c>
+      <c r="B273" t="s">
+        <v>338</v>
+      </c>
+      <c r="C273">
+        <v>0.35154410593761698</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>269</v>
+      </c>
+      <c r="B274" t="s">
+        <v>266</v>
+      </c>
+      <c r="C274">
+        <v>0.34401603041345002</v>
+      </c>
+      <c r="D274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>270</v>
+      </c>
+      <c r="B275" t="s">
+        <v>315</v>
+      </c>
+      <c r="C275">
+        <v>0.342663011433952</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>272</v>
+      </c>
+      <c r="B276" t="s">
+        <v>310</v>
+      </c>
+      <c r="C276">
+        <v>0.33998140283033601</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>273</v>
+      </c>
+      <c r="B277" t="s">
+        <v>391</v>
+      </c>
+      <c r="C277">
+        <v>0.33488958049874401</v>
+      </c>
+      <c r="D277" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>274</v>
+      </c>
+      <c r="B278" t="s">
+        <v>128</v>
+      </c>
+      <c r="C278">
+        <v>0.331099992430826</v>
+      </c>
+      <c r="D278" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>275</v>
+      </c>
+      <c r="B279" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279">
+        <v>0.33016135931069501</v>
+      </c>
+      <c r="D279" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>276</v>
+      </c>
+      <c r="B280" t="s">
+        <v>328</v>
+      </c>
+      <c r="C280">
+        <v>0.32396828896274199</v>
+      </c>
+      <c r="D280" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>277</v>
+      </c>
+      <c r="B281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281">
+        <v>0.31786321924869099</v>
+      </c>
+      <c r="D281" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>278</v>
+      </c>
+      <c r="B282" t="s">
+        <v>340</v>
+      </c>
+      <c r="C282">
+        <v>0.31775236421576197</v>
+      </c>
+      <c r="D282" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>279</v>
+      </c>
+      <c r="B283" t="s">
+        <v>425</v>
+      </c>
+      <c r="C283">
+        <v>0.313087352246194</v>
+      </c>
+      <c r="D283" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>280</v>
+      </c>
+      <c r="B284" t="s">
+        <v>369</v>
+      </c>
+      <c r="C284">
+        <v>0.31037887520984098</v>
+      </c>
+      <c r="D284" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>282</v>
+      </c>
+      <c r="B285" t="s">
+        <v>319</v>
+      </c>
+      <c r="C285">
+        <v>0.29562329533587201</v>
+      </c>
+      <c r="D285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>283</v>
+      </c>
+      <c r="B286" t="s">
+        <v>306</v>
+      </c>
+      <c r="C286">
+        <v>0.290651650729216</v>
+      </c>
+      <c r="D286" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>284</v>
+      </c>
+      <c r="B287" t="s">
+        <v>272</v>
+      </c>
+      <c r="C287">
+        <v>0.28959523639179902</v>
+      </c>
+      <c r="D287" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>285</v>
+      </c>
+      <c r="B288" t="s">
+        <v>182</v>
+      </c>
+      <c r="C288">
+        <v>0.28548407653389601</v>
+      </c>
+      <c r="D288" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>286</v>
+      </c>
+      <c r="B289" t="s">
+        <v>148</v>
+      </c>
+      <c r="C289">
+        <v>0.28540277368756101</v>
+      </c>
+      <c r="D289" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>287</v>
+      </c>
+      <c r="B290" t="s">
+        <v>205</v>
+      </c>
+      <c r="C290">
+        <v>0.28178092836705798</v>
+      </c>
+      <c r="D290" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>288</v>
+      </c>
+      <c r="B291" t="s">
+        <v>363</v>
+      </c>
+      <c r="C291">
+        <v>0.28133984825355202</v>
+      </c>
+      <c r="D291" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>289</v>
+      </c>
+      <c r="B292" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292">
+        <v>0.28129110424558501</v>
+      </c>
+      <c r="D292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>282</v>
+      </c>
+      <c r="C293">
+        <v>0.2783139647324</v>
+      </c>
+      <c r="D293" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>376</v>
+      </c>
+      <c r="C294">
+        <v>0.27753247525504099</v>
+      </c>
+      <c r="D294" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>280</v>
+      </c>
+      <c r="C295">
+        <v>0.268976403132274</v>
+      </c>
+      <c r="D295" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>399</v>
+      </c>
+      <c r="C296">
+        <v>0.26538225801075999</v>
+      </c>
+      <c r="D296" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>304</v>
+      </c>
+      <c r="C297">
+        <v>0.265122174700269</v>
+      </c>
+      <c r="D297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>435</v>
+      </c>
+      <c r="C298">
+        <v>0.26506387395987702</v>
+      </c>
+      <c r="D298" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>201</v>
+      </c>
+      <c r="C299">
+        <v>0.26419049990862697</v>
+      </c>
+      <c r="D299" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>241</v>
+      </c>
+      <c r="C300">
+        <v>0.26390782653122802</v>
+      </c>
+      <c r="D300" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>416</v>
+      </c>
+      <c r="C301">
+        <v>0.26093868922616897</v>
+      </c>
+      <c r="D301" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>343</v>
+      </c>
+      <c r="C302">
+        <v>0.25797141393506201</v>
+      </c>
+      <c r="D302" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>259</v>
+      </c>
+      <c r="C303">
+        <v>0.25100224028407497</v>
+      </c>
+      <c r="D303" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>199</v>
+      </c>
+      <c r="C304">
+        <v>0.243869347769158</v>
+      </c>
+      <c r="D304" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>176</v>
+      </c>
+      <c r="C305">
+        <v>0.240051765006322</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>417</v>
+      </c>
+      <c r="C306">
+        <v>0.23522717797336201</v>
+      </c>
+      <c r="D306" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>316</v>
+      </c>
+      <c r="C307">
+        <v>0.232316483683429</v>
+      </c>
+      <c r="D307" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>400</v>
+      </c>
+      <c r="C308">
+        <v>0.22980765632936201</v>
+      </c>
+      <c r="D308" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>302</v>
+      </c>
+      <c r="C309">
+        <v>0.22963353690072899</v>
+      </c>
+      <c r="D309" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>413</v>
+      </c>
+      <c r="C310">
+        <v>0.22589432160957901</v>
+      </c>
+      <c r="D310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>305</v>
+      </c>
+      <c r="C311">
+        <v>0.21992074452458199</v>
+      </c>
+      <c r="D311" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>380</v>
+      </c>
+      <c r="C312">
+        <v>0.218695534505155</v>
+      </c>
+      <c r="D312" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>367</v>
+      </c>
+      <c r="C313">
+        <v>0.21603396094699001</v>
+      </c>
+      <c r="D313" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>428</v>
+      </c>
+      <c r="C314">
+        <v>0.21477940009917701</v>
+      </c>
+      <c r="D314" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>321</v>
+      </c>
+      <c r="C315">
+        <v>0.21429680337642401</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>347</v>
+      </c>
+      <c r="C316">
+        <v>0.21352519827673799</v>
+      </c>
+      <c r="D316" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>387</v>
+      </c>
+      <c r="C317">
+        <v>0.21229878567846799</v>
+      </c>
+      <c r="D317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>365</v>
+      </c>
+      <c r="C318">
+        <v>0.21212711567155301</v>
+      </c>
+      <c r="D318" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>271</v>
+      </c>
+      <c r="C319">
+        <v>0.20925360815739899</v>
+      </c>
+      <c r="D319" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>334</v>
+      </c>
+      <c r="C320">
+        <v>0.20216568354917999</v>
+      </c>
+      <c r="D320" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>426</v>
+      </c>
+      <c r="C321">
+        <v>0.19539961718138399</v>
+      </c>
+      <c r="D321" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>285</v>
+      </c>
+      <c r="C322">
+        <v>0.19382445780183999</v>
+      </c>
+      <c r="D322" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>439</v>
+      </c>
+      <c r="C323">
+        <v>0.19354355783626401</v>
+      </c>
+      <c r="D323" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>404</v>
+      </c>
+      <c r="C324">
+        <v>0.192622492463036</v>
+      </c>
+      <c r="D324" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>350</v>
+      </c>
+      <c r="C325">
+        <v>0.18199570316605099</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>244</v>
+      </c>
+      <c r="C326">
+        <v>0.17856155155099099</v>
+      </c>
+      <c r="D326" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>424</v>
+      </c>
+      <c r="C327">
+        <v>0.17555577642985701</v>
+      </c>
+      <c r="D327" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>309</v>
+      </c>
+      <c r="C328">
+        <v>0.175381088834694</v>
+      </c>
+      <c r="D328" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>325</v>
+      </c>
+      <c r="C329">
+        <v>0.169546444691863</v>
+      </c>
+      <c r="D329" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>395</v>
+      </c>
+      <c r="C330">
+        <v>0.16508476911509401</v>
+      </c>
+      <c r="D330" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>0.16427181499624499</v>
+      </c>
+      <c r="D331" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332">
+        <v>0.16415031814526601</v>
+      </c>
+      <c r="D332" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>0.161320076122422</v>
+      </c>
+      <c r="D333" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>177</v>
+      </c>
+      <c r="C334">
+        <v>0.159981752269865</v>
+      </c>
+      <c r="D334" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>269</v>
+      </c>
+      <c r="C335">
+        <v>0.15861230932749801</v>
+      </c>
+      <c r="D335" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>359</v>
+      </c>
+      <c r="C336">
+        <v>0.15688193670318001</v>
+      </c>
+      <c r="D336" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>407</v>
+      </c>
+      <c r="C337">
+        <v>0.15576684462186899</v>
+      </c>
+      <c r="D337" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>422</v>
+      </c>
+      <c r="C338">
+        <v>0.15288358657463699</v>
+      </c>
+      <c r="D338" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>382</v>
+      </c>
+      <c r="C339">
+        <v>0.151213582764471</v>
+      </c>
+      <c r="D339" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>453</v>
+      </c>
+      <c r="C340">
+        <v>0.15023920258429899</v>
+      </c>
+      <c r="D340" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>403</v>
+      </c>
+      <c r="C341">
+        <v>0.143919338808461</v>
+      </c>
+      <c r="D341" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>378</v>
+      </c>
+      <c r="C342">
+        <v>0.14052387516156101</v>
+      </c>
+      <c r="D342" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>401</v>
+      </c>
+      <c r="C343">
+        <v>0.135997195020088</v>
+      </c>
+      <c r="D343" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>423</v>
+      </c>
+      <c r="C344">
+        <v>0.130706488365741</v>
+      </c>
+      <c r="D344" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>326</v>
+      </c>
+      <c r="C345">
+        <v>0.12925783954240599</v>
+      </c>
+      <c r="D345" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>389</v>
+      </c>
+      <c r="C346">
+        <v>0.12910896890081</v>
+      </c>
+      <c r="D346" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>331</v>
+      </c>
+      <c r="C347">
+        <v>0.12849493490187</v>
+      </c>
+      <c r="D347" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>540</v>
+      </c>
+      <c r="C348">
+        <v>0.12776271968910399</v>
+      </c>
+      <c r="D348" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>372</v>
+      </c>
+      <c r="C349">
+        <v>0.12701884695078999</v>
+      </c>
+      <c r="D349" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>392</v>
+      </c>
+      <c r="C350">
+        <v>0.123838040601088</v>
+      </c>
+      <c r="D350" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>541</v>
+      </c>
+      <c r="C351">
+        <v>0.118810043567543</v>
+      </c>
+      <c r="D351" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>263</v>
+      </c>
+      <c r="C352">
+        <v>0.11840622919943999</v>
+      </c>
+      <c r="D352" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>434</v>
+      </c>
+      <c r="C353">
+        <v>0.116204572713938</v>
+      </c>
+      <c r="D353" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>408</v>
+      </c>
+      <c r="C354">
+        <v>0.111274569431389</v>
+      </c>
+      <c r="D354" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>368</v>
+      </c>
+      <c r="C355">
+        <v>0.11068699589202501</v>
+      </c>
+      <c r="D355" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>351</v>
+      </c>
+      <c r="C356">
+        <v>0.11027990645830001</v>
+      </c>
+      <c r="D356" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>402</v>
+      </c>
+      <c r="C357">
+        <v>0.10833720610462801</v>
+      </c>
+      <c r="D357" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>448</v>
+      </c>
+      <c r="C358">
+        <v>0.10304101182986999</v>
+      </c>
+      <c r="D358" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>410</v>
+      </c>
+      <c r="C359">
+        <v>0.101891486142642</v>
+      </c>
+      <c r="D359" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>412</v>
+      </c>
+      <c r="C360">
+        <v>9.7221257708964795E-2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>373</v>
+      </c>
+      <c r="C361">
+        <v>9.6380725185164301E-2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>329</v>
+      </c>
+      <c r="C362">
+        <v>9.6031133149140996E-2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>393</v>
+      </c>
+      <c r="C363">
+        <v>9.5654661091308602E-2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>336</v>
+      </c>
+      <c r="C364">
+        <v>9.5440778844401303E-2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>381</v>
+      </c>
+      <c r="C365">
+        <v>9.4688216465344102E-2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>542</v>
+      </c>
+      <c r="C366">
+        <v>9.2788668995894205E-2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>288</v>
+      </c>
+      <c r="C367">
+        <v>9.2571714897781404E-2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>256</v>
+      </c>
+      <c r="C368">
+        <v>9.2020510505340006E-2</v>
+      </c>
+      <c r="D368" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>419</v>
+      </c>
+      <c r="C369">
+        <v>9.1820273335321598E-2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>405</v>
+      </c>
+      <c r="C370">
+        <v>9.1161028801025196E-2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371">
+        <v>8.9250057427026297E-2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>370</v>
+      </c>
+      <c r="C372">
+        <v>8.0207373333146897E-2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>301</v>
+      </c>
+      <c r="C373">
+        <v>7.8733297146246994E-2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>383</v>
+      </c>
+      <c r="C374">
+        <v>7.7454252798937098E-2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>358</v>
+      </c>
+      <c r="C375">
+        <v>7.7150865358676199E-2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>452</v>
+      </c>
+      <c r="C376">
+        <v>7.5391378079967597E-2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>415</v>
+      </c>
+      <c r="C377">
+        <v>7.5014246001548004E-2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>432</v>
+      </c>
+      <c r="C378">
+        <v>7.4222799020880706E-2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>443</v>
+      </c>
+      <c r="C379">
+        <v>6.84948079133674E-2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>411</v>
+      </c>
+      <c r="C380">
+        <v>6.6632480011301107E-2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>543</v>
+      </c>
+      <c r="C381">
+        <v>6.5954832961388293E-2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>431</v>
+      </c>
+      <c r="C382">
+        <v>6.4911113041324395E-2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>447</v>
+      </c>
+      <c r="C383">
+        <v>6.1537727244792798E-2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>414</v>
+      </c>
+      <c r="C384">
+        <v>5.9954936595657898E-2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>455</v>
+      </c>
+      <c r="C385">
+        <v>5.4171529196241401E-2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>449</v>
+      </c>
+      <c r="C386">
+        <v>5.3944616742371103E-2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>429</v>
+      </c>
+      <c r="C387">
+        <v>5.3397431509175697E-2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>457</v>
+      </c>
+      <c r="C388">
+        <v>5.3196413354529903E-2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>384</v>
+      </c>
+      <c r="C389">
+        <v>4.6914325763211397E-2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>385</v>
+      </c>
+      <c r="C390">
+        <v>4.5375711837096697E-2</v>
+      </c>
+      <c r="D390" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>355</v>
+      </c>
+      <c r="C391">
+        <v>4.2906790501686297E-2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>297</v>
+      </c>
+      <c r="C392">
+        <v>4.0677868353711698E-2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>427</v>
+      </c>
+      <c r="C393">
+        <v>4.0526175196256599E-2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>440</v>
+      </c>
+      <c r="C394">
+        <v>4.0103119593738398E-2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>307</v>
+      </c>
+      <c r="C395">
+        <v>3.94935940146166E-2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>349</v>
+      </c>
+      <c r="C396">
+        <v>3.8208351212898797E-2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+      <c r="C397">
+        <v>3.0947298007052999E-2</v>
+      </c>
+      <c r="D397" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>441</v>
+      </c>
+      <c r="C398">
+        <v>3.0816426862354401E-2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>445</v>
+      </c>
+      <c r="C399">
+        <v>2.9701502113853102E-2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>430</v>
+      </c>
+      <c r="C400">
+        <v>2.5064875680068301E-2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>433</v>
+      </c>
+      <c r="C401">
+        <v>2.4267646394533399E-2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>418</v>
+      </c>
+      <c r="C402">
+        <v>2.3953215780836101E-2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>544</v>
+      </c>
+      <c r="C403">
+        <v>2.17144706213271E-2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>454</v>
+      </c>
+      <c r="C404">
+        <v>2.1021633542270501E-2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>420</v>
+      </c>
+      <c r="C405">
+        <v>1.99456269504187E-2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>461</v>
+      </c>
+      <c r="C406">
+        <v>1.8859890947164799E-2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>451</v>
+      </c>
+      <c r="C407">
+        <v>1.8804290152301999E-2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>409</v>
+      </c>
+      <c r="C408">
+        <v>1.4844185506353901E-2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>442</v>
+      </c>
+      <c r="C409">
+        <v>1.47846881274683E-2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>545</v>
+      </c>
+      <c r="C410">
+        <v>1.41201398819982E-2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>462</v>
+      </c>
+      <c r="C411">
+        <v>9.5073335454259698E-3</v>
+      </c>
+      <c r="D411" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>388</v>
+      </c>
+      <c r="C412">
+        <v>7.0731053803855101E-3</v>
+      </c>
+      <c r="D412" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>446</v>
+      </c>
+      <c r="C413">
+        <v>6.76546817397225E-3</v>
+      </c>
+      <c r="D413" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>421</v>
+      </c>
+      <c r="C414">
+        <v>6.6794913482555703E-3</v>
+      </c>
+      <c r="D414" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>464</v>
+      </c>
+      <c r="C415">
+        <v>5.8965171550352299E-3</v>
+      </c>
+      <c r="D415" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>450</v>
+      </c>
+      <c r="C416">
+        <v>3.6644321144842602E-3</v>
+      </c>
+      <c r="D416" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>463</v>
+      </c>
+      <c r="C417">
+        <v>2.22898297777479E-3</v>
+      </c>
+      <c r="D417" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>459</v>
+      </c>
+      <c r="C418">
+        <v>2.1401160430315901E-3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>546</v>
+      </c>
+      <c r="C419">
+        <v>2.3417077698093501E-4</v>
+      </c>
+      <c r="D419" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>547</v>
+      </c>
+      <c r="C420" s="1">
+        <v>4.7091189671298301E-5</v>
+      </c>
+      <c r="D420" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F420">
+    <sortCondition ref="E2:E420"/>
+    <sortCondition ref="A2:A420"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
